--- a/documentation/ops.xlsx
+++ b/documentation/ops.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atlas\Documents\Scratch\Image Format 2\image_format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atlas\Documents\Scratch\Image Format 2\image_format\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6A104-2972-4E9E-906A-02E923344C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721D5CEA-2C9E-4C1D-9663-ADE85BD430A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="8730" windowWidth="28800" windowHeight="15435" xr2:uid="{82B26506-029A-4AF7-9821-B95842BC404D}"/>
   </bookViews>
@@ -844,9 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D621977D-9180-48C3-AE56-C4DE55E27DCB}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -913,7 +911,7 @@
       </c>
       <c r="I2" s="1" t="str">
         <f>_xlfn.CONCAT(H2:H95)</f>
-        <v>["raw",0,3],["raw",1,3],["raw",2,3],["raw",3,3],["raw",4,3],["raw",5,3],["raw",6,3],["raw",7,3],["raw",8,3],["raw",9,3],["raw",10,3],["raw",11,3],["raw",12,3],["raw",13,3],["raw",14,3],["raw",15,3],["raw",16,3],["raw",17,3],["raw",18,3],["raw",19,3],["raw",20,3],["raw",21,3],["copy_prev",0,0],["copy_vert_fwd",0,0],["copy_vert",0,0],["copy_vert_back",0,0],["hash_table",0,1],["repeat_op",0,None],["vol",0,1],["vol",1,1],["vol",2,1],["vol",3,1],["vol",4,1],["vol",5,1],["vol",6,1],["vol",7,1],["vol",8,1],["vol",9,1],["vol",10,1],["vol",11,1],["vol",12,1],["vol",13,1],["vol",14,1],["vol",15,1],["vol",16,1],["vol",17,1],["vol",18,1],["vol",19,1],["vol",20,1],["vol",21,1],["vol",22,1],["vol",23,1],["vol",24,1],["vol",25,1],["vol",26,1],["vol",27,1],["vol",28,1],["vol",29,1],["vol",30,1],["vol",31,1],["vol",32,1],["vol",33,1],["vol",34,1],["vol",35,1],["vol",36,1],["vol",37,1],["vol",38,1],["vol",39,1],["vol",40,1],["vol",41,1],["vol",42,1],["vol",43,1],["vol",44,1],["vol",45,2],["vol",46,2],["vol",47,2],["vol",48,2],["vol",49,2],["vol",50,2],["vol",51,2],["vol",52,2],["vol",53,2],["vol",54,2],["vol",55,2],["vol",56,2],["vol",57,2],["vol",58,2],["vol",59,2],["vol",60,2],["vol",61,2],["vol",62,2],["unassigned",0,0],["unassigned",1,0],["unassigned",2,0],</v>
+        <v>["raw",0,3],["raw",1,3],["raw",2,3],["raw",3,3],["raw",4,3],["raw",5,3],["raw",6,3],["raw",7,3],["raw",8,3],["raw",9,3],["raw",10,3],["raw",11,3],["raw",12,3],["raw",13,3],["raw",14,3],["raw",15,3],["raw",16,3],["raw",17,3],["raw",18,3],["raw",19,3],["raw",20,3],["unassigned",3,0],["copy_prev",0,0],["copy_vert_fwd",0,0],["copy_vert",0,0],["copy_vert_back",0,0],["hash_table",0,1],["repeat_op",0,None],["vol",0,1],["vol",1,1],["vol",2,1],["vol",3,1],["vol",4,1],["vol",5,1],["vol",6,1],["vol",7,1],["vol",8,1],["vol",9,1],["vol",10,1],["vol",11,1],["vol",12,1],["vol",13,1],["vol",14,1],["vol",15,1],["vol",16,1],["vol",17,1],["vol",18,1],["vol",19,1],["vol",20,1],["vol",21,1],["vol",22,1],["vol",23,1],["vol",24,1],["vol",25,1],["vol",26,1],["vol",27,1],["vol",28,1],["vol",29,1],["vol",30,1],["vol",31,1],["vol",32,1],["vol",33,1],["vol",34,1],["vol",35,1],["vol",36,1],["vol",37,1],["vol",38,1],["vol",39,1],["vol",40,1],["vol",41,1],["vol",42,1],["vol",43,1],["vol",44,1],["vol",45,2],["vol",46,2],["vol",47,2],["vol",48,2],["vol",49,2],["vol",50,2],["vol",51,2],["vol",52,2],["vol",53,2],["vol",54,2],["vol",55,2],["vol",56,2],["vol",57,2],["vol",58,2],["vol",59,2],["vol",60,2],["vol",61,2],["vol",62,2],["unassigned",0,0],["unassigned",1,0],["unassigned",2,0],</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,21 +1422,21 @@
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
-        <v>21</v>
-      </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>raw21</v>
+        <v>unassigned3</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>["raw",21,3],</v>
+        <v>["unassigned",3,0],</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
